--- a/DOCUMENT/테이블명세서.xlsx
+++ b/DOCUMENT/테이블명세서.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="USER" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="TRAIN" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="BUS" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="LOCATION" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="LOCATION" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="TRAIN" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="BUS" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="BOOK" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="132">
   <si>
     <t xml:space="preserve">테이블 목록</t>
   </si>
@@ -249,6 +249,15 @@
     <t xml:space="preserve">  - 두 테이블의 데이터 간 연결을 설정하고 강제 적용한다.</t>
   </si>
   <si>
+    <t xml:space="preserve">CREATE TABLE USER_INFO(
+                USER_ID VARCHAR2(20) PRIMARY KEY,
+                USER_PW VARCHAR2(20),
+                USER_NAME VARCHAR2(20),
+                USER_BIRTH DATE,
+                USER_PHONE VARCHAR2(20),
+                USER_EMAIL VARCHAR2(20));</t>
+  </si>
+  <si>
     <t xml:space="preserve">  - 참조하고자 하는 컬럼이 PRIMARY KEY(PK) 또는 UNIQUE KEY가 잡혀있어야 사용가능하다.</t>
   </si>
   <si>
@@ -258,10 +267,36 @@
     <t xml:space="preserve">천승현</t>
   </si>
   <si>
+    <t xml:space="preserve">지역 정보를 담고있는 테이블</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지역 번호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지역 이름</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE LOCATION(
+                LOC_NUM VARCHAR2(20) PRIMARY KEY,
+                LOC_NAME VARCHAR2(20));</t>
+  </si>
+  <si>
     <t xml:space="preserve">운행하는 기차의 정보를 담고있는 테이블 </t>
   </si>
   <si>
-    <t xml:space="preserve">기차 번호</t>
+    <t xml:space="preserve">운행 번호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAIN_SERV_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">차량 번호</t>
   </si>
   <si>
     <t xml:space="preserve">TRAIN_NUM</t>
@@ -312,9 +347,23 @@
     <t xml:space="preserve">TRAIN_FARE</t>
   </si>
   <si>
+    <t xml:space="preserve">CREATE TABLE TRAIN(
+                TRAIN_NUM VARCHAR2(20) PRIMARY KEY,
+                TRAIN_DEP_LOC VARCHAR2(20),
+                TRAIN_DEST_LOC VARCHAR2(20),
+                TRAIN_DEP_TIME DATE,
+                TRAIN_ARR_TIME DATE,
+                TRAIN_TYPE VARCHAR2(20),
+                TRAIN_SEAT NUMBER(10),
+                TRAIN_FARE NUMBER(10));</t>
+  </si>
+  <si>
     <t xml:space="preserve">버스 탑승 정보를 담고 있는 테이블</t>
   </si>
   <si>
+    <t xml:space="preserve">BUS_SERV_NUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">버스 번호</t>
   </si>
   <si>
@@ -345,19 +394,14 @@
     <t xml:space="preserve">BUS_FARE</t>
   </si>
   <si>
-    <t xml:space="preserve">지역 정보를 담고있는 테이블</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지역 코드</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC_NUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지역 이름</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC_NAME</t>
+    <t xml:space="preserve">CREATE TABLE BUS(
+                BUS_NUM VARCHAR2(20) PRIMARY KEY,
+                BUS_DEP_LOC VARCHAR2(20),
+                BUS_DEST_LOC VARCHAR2(20),
+                BUS_DEP_TIME DATE,
+                BUS_EST_TIME DATE,
+                BUS_SEAT NUMBER(10),
+                BUS_FARE NUMBER(10));</t>
   </si>
   <si>
     <t xml:space="preserve">예매현황 정보를 담은 테이블</t>
@@ -372,22 +416,40 @@
     <t xml:space="preserve">유저 아이디</t>
   </si>
   <si>
-    <t xml:space="preserve">DEP_LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEST_LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">교통편</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">예매날짜</t>
+    <t xml:space="preserve">도착지</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 운행 번호</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERV_NUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEP_TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR_TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예매 인원</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOK_NOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예매 날짜</t>
   </si>
   <si>
     <t xml:space="preserve">BOOK_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TABLE BOOK(
+                BOOK_NUM VARCHAR2(20) PRIMARY KEY,
+                USER_ID VARCHAR2(20),
+                DEP_LOC VARCHAR2(20),
+                DEST_LOC VARCHAR2(20),
+                TRANS VARCHAR2(20),
+                BOOK_DATE DATE);</t>
   </si>
 </sst>
 </file>
@@ -888,8 +950,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1141,8 +1203,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,8 +1692,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="49" t="s">
+        <v>74</v>
+      </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -1642,7 +1706,7 @@
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
       <c r="M24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,7 +1721,7 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="M25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,7 +1938,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1911,7 +1975,7 @@
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -1920,7 +1984,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1938,7 +2002,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -1987,12 +2051,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>36</v>
@@ -2020,12 +2084,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>36</v>
@@ -2034,7 +2098,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>38</v>
@@ -2053,195 +2117,91 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="37" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>38</v>
-      </c>
+    <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="38"/>
       <c r="M9" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>48</v>
-      </c>
+    <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="38"/>
       <c r="M10" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>48</v>
-      </c>
+    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>38</v>
-      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="38"/>
       <c r="L11" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="37" t="n">
-        <v>20</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>38</v>
-      </c>
+    <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="38"/>
       <c r="M12" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="37" t="n">
-        <v>10</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>38</v>
-      </c>
+    <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="38"/>
       <c r="M13" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="37" t="n">
-        <v>10</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="38"/>
       <c r="L14" s="0" t="s">
         <v>57</v>
@@ -2396,8 +2356,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="49" t="s">
+        <v>83</v>
+      </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -2408,7 +2370,7 @@
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
       <c r="M24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,7 +2385,7 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="M25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,10 +2599,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2677,7 +2639,7 @@
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -2686,7 +2648,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -2704,7 +2666,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -2753,12 +2715,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>36</v>
@@ -2786,45 +2748,42 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="37" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="37" t="n">
+      <c r="D8" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="M8" s="0" t="s">
-        <v>42</v>
-      </c>
+      <c r="E8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>36</v>
@@ -2849,20 +2808,22 @@
       </c>
       <c r="J9" s="38"/>
       <c r="M9" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="37"/>
+        <v>36</v>
+      </c>
+      <c r="D10" s="37" t="n">
+        <v>20</v>
+      </c>
       <c r="E10" s="37" t="s">
         <v>38</v>
       </c>
@@ -2880,15 +2841,15 @@
       </c>
       <c r="J10" s="38"/>
       <c r="M10" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>48</v>
@@ -2910,55 +2871,53 @@
         <v>38</v>
       </c>
       <c r="J11" s="38"/>
-      <c r="L11" s="0" t="s">
+      <c r="M11" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="L12" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="37" t="s">
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="37" t="n">
+      <c r="D13" s="37" t="n">
         <v>20</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="M12" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="37" t="n">
-        <v>10</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>38</v>
@@ -2977,18 +2936,18 @@
       </c>
       <c r="J13" s="38"/>
       <c r="M13" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D14" s="37" t="n">
         <v>10</v>
@@ -3009,23 +2968,41 @@
         <v>38</v>
       </c>
       <c r="J14" s="38"/>
-      <c r="L14" s="0" t="s">
+      <c r="M14" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="L15" s="0" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="M15" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,145 +3017,147 @@
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
       <c r="M16" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="M17" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="M17" s="0" t="s">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="M18" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
+    <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="M18" s="0" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="M19" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B20" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G20" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="M19" s="0" t="s">
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="M20" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="M20" s="0" t="s">
+    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="M21" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="L21" s="0" t="s">
+    <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="L22" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="M22" s="0" t="s">
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="M23" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="s">
+    <row r="24" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="M23" s="0" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="M24" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="M24" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49"/>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="49" t="s">
+        <v>104</v>
+      </c>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -3203,6 +3182,9 @@
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
+      <c r="M26" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="49"/>
@@ -3360,7 +3342,7 @@
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
@@ -3372,6 +3354,25 @@
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
     </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:J1"/>
@@ -3381,12 +3382,12 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J40"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3403,10 +3404,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3443,7 +3444,7 @@
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -3452,7 +3453,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -3470,7 +3471,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -3521,10 +3522,10 @@
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>36</v>
@@ -3552,142 +3553,261 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="35" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="37" t="n">
+      <c r="D9" s="37" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="M8" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="E9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" s="38"/>
       <c r="M9" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J10" s="38"/>
       <c r="M10" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="M11" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="38"/>
-      <c r="L11" s="0" t="s">
+    <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="L12" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="38"/>
-      <c r="M12" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="A13" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="M13" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="M14" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="L14" s="0" t="s">
+    <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="L15" s="0" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-      <c r="M15" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,145 +3822,147 @@
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
       <c r="M16" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="M17" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="M17" s="0" t="s">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="M18" s="0" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
+    <row r="19" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="M18" s="0" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="M19" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43" t="s">
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B20" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G20" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="M19" s="0" t="s">
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="M20" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="M20" s="0" t="s">
+    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="M21" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="L21" s="0" t="s">
+    <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="L22" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="M22" s="0" t="s">
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="41"/>
+      <c r="M23" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="s">
+    <row r="24" customFormat="false" ht="18.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="M23" s="0" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="M24" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="M24" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49"/>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="49" t="s">
+        <v>117</v>
+      </c>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
@@ -3865,6 +3987,9 @@
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
+      <c r="M26" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="49"/>
@@ -4022,7 +4147,7 @@
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
@@ -4034,6 +4159,18 @@
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
     </row>
+    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:J1"/>
@@ -4043,12 +4180,12 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B5:J5"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J40"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4067,8 +4204,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4105,7 +4242,7 @@
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" s="23"/>
     </row>
@@ -4132,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -4183,10 +4320,10 @@
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>36</v>
@@ -4216,7 +4353,7 @@
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>35</v>
@@ -4234,7 +4371,7 @@
         <v>38</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>38</v>
@@ -4249,10 +4386,10 @@
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>80</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>115</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>36</v>
@@ -4267,7 +4404,7 @@
         <v>38</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>38</v>
@@ -4282,10 +4419,10 @@
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>36</v>
@@ -4300,7 +4437,7 @@
         <v>38</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>38</v>
@@ -4315,10 +4452,10 @@
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>36</v>
@@ -4333,7 +4470,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>38</v>
@@ -4348,10 +4485,10 @@
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>48</v>
@@ -4378,45 +4515,95 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="E13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="M13" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="A14" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="L14" s="0" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="E15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="M15" s="0" t="s">
         <v>58</v>
@@ -4556,8 +4743,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="49" t="s">
+        <v>131</v>
+      </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -4568,7 +4757,7 @@
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
       <c r="M24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,7 +4772,7 @@
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
       <c r="M25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/DOCUMENT/테이블명세서.xlsx
+++ b/DOCUMENT/테이블명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="134">
   <si>
     <t xml:space="preserve">테이블 목록</t>
   </si>
@@ -54,13 +54,13 @@
     <t xml:space="preserve">TRAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">기차 예매 정보</t>
+    <t xml:space="preserve">기차 운행 정보</t>
   </si>
   <si>
     <t xml:space="preserve">BUS</t>
   </si>
   <si>
-    <t xml:space="preserve">버스 예매 정보</t>
+    <t xml:space="preserve">버스 운행 정보</t>
   </si>
   <si>
     <t xml:space="preserve">LOCATION</t>
@@ -251,7 +251,7 @@
   <si>
     <t xml:space="preserve">CREATE TABLE USER_INFO(
                 USER_ID VARCHAR2(20) PRIMARY KEY,
-                USER_PW VARCHAR2(20),
+                USER_PW VARCHAR2(20) NOT NULL,
                 USER_NAME VARCHAR2(20),
                 USER_BIRTH DATE,
                 USER_PHONE VARCHAR2(20),
@@ -282,9 +282,9 @@
     <t xml:space="preserve">LOC_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE TABLE LOCATION(
+    <t xml:space="preserve">CREATE TABLE LOCATION_INFO(
                 LOC_NUM VARCHAR2(20) PRIMARY KEY,
-                LOC_NAME VARCHAR2(20));</t>
+                LOC_NAME VARCHAR2(20) NOT NULL);</t>
   </si>
   <si>
     <t xml:space="preserve">운행하는 기차의 정보를 담고있는 테이블 </t>
@@ -348,12 +348,13 @@
   </si>
   <si>
     <t xml:space="preserve">CREATE TABLE TRAIN(
-                TRAIN_NUM VARCHAR2(20) PRIMARY KEY,
+                TRAIN_SERV_NUM VARCHAR2(20) PRIMARY KEY, 
+                TRAIN_NUM VARCHAR2(20),
                 TRAIN_DEP_LOC VARCHAR2(20),
                 TRAIN_DEST_LOC VARCHAR2(20),
                 TRAIN_DEP_TIME DATE,
                 TRAIN_ARR_TIME DATE,
-                TRAIN_TYPE VARCHAR2(20),
+                TRAIN_GRADE VARCHAR2(20),
                 TRAIN_SEAT NUMBER(10),
                 TRAIN_FARE NUMBER(10));</t>
   </si>
@@ -395,11 +396,13 @@
   </si>
   <si>
     <t xml:space="preserve">CREATE TABLE BUS(
-                BUS_NUM VARCHAR2(20) PRIMARY KEY,
+                BUS_SERV_NUM VARCHAR2(20) PRIMARY KEY,
+                BUS_NUM VARCHAR2(20),
                 BUS_DEP_LOC VARCHAR2(20),
                 BUS_DEST_LOC VARCHAR2(20),
                 BUS_DEP_TIME DATE,
-                BUS_EST_TIME DATE,
+                BUS_ARR_TIME DATE,
+                BUS_GRADE VARCHAR2(20),
                 BUS_SEAT NUMBER(10),
                 BUS_FARE NUMBER(10));</t>
   </si>
@@ -416,7 +419,13 @@
     <t xml:space="preserve">유저 아이디</t>
   </si>
   <si>
+    <t xml:space="preserve">DEP_LOC_NUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">도착지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR_LOC_NUM</t>
   </si>
   <si>
     <t xml:space="preserve"> 운행 번호</t>
@@ -446,10 +455,24 @@
     <t xml:space="preserve">CREATE TABLE BOOK(
                 BOOK_NUM VARCHAR2(20) PRIMARY KEY,
                 USER_ID VARCHAR2(20),
-                DEP_LOC VARCHAR2(20),
-                DEST_LOC VARCHAR2(20),
-                TRANS VARCHAR2(20),
-                BOOK_DATE DATE);</t>
+                DEP_LOC_NUM VARCHAR2(20),
+                ARR_LOC_NUM VARCHAR2(20),
+                SERV_NUM VARCHAR2(20),
+                DEP_TIME DATE,
+                ARR_TIME DATE,
+                BOOK_NOM NUMBER(20),
+                BOOK_DATE DATE,
+                CONSTRAINT book_userid_fk FOREIGN KEY ("USER_ID")
+                REFERENCES USER_INFO("USER_ID"),
+                CONSTRAINT book_deplocbum_fk FOREIGN KEY ("DEP_LOC_NUM")
+                REFERENCES LOCATION_INFO ("LOC_NUM"),
+                CONSTRAINT book_arrlocnum_fk FOREIGN KEY ("ARR_LOC_NUM")
+                REFERENCES LOCATION_INFO ("LOC_NUM"),
+                CONSTRAINT book_busservnum_fk FOREIGN KEY ("SERV_NUM")
+                REFERENCES BUS ("BUS_SERV_NUM"),
+                CONSTRAINT book_trainservnum_fk FOREIGN KEY ("SERV_NUM")
+                REFERENCES TRAIN ("TRAIN_SERV_NUM"));
+</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1057,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,7 +1226,7 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1938,7 +1961,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2601,8 +2624,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3406,8 +3429,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4204,8 +4227,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4389,7 +4412,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>36</v>
@@ -4419,10 +4442,10 @@
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>36</v>
@@ -4452,10 +4475,10 @@
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>36</v>
@@ -4488,7 +4511,7 @@
         <v>93</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>48</v>
@@ -4519,7 +4542,7 @@
         <v>95</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>48</v>
@@ -4547,10 +4570,10 @@
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>101</v>
@@ -4580,10 +4603,10 @@
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>48</v>
@@ -4745,7 +4768,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>

--- a/DOCUMENT/테이블명세서.xlsx
+++ b/DOCUMENT/테이블명세서.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.3.37697"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="730" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
       <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,12 +789,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1516,10 +1510,10 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="32" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="31" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1528,85 +1522,85 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -4339,8 +4333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" showZeros="0" defaultGridColor="0" colorId="64" view="normal" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A7" showZeros="0" tabSelected="1" defaultGridColor="0" colorId="64" view="normal" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4551,7 +4545,7 @@
     </row>
     <row r="10" spans="1:13" ht="16.400000" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>160</v>
@@ -5152,7 +5146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" showZeros="0" tabSelected="1" defaultGridColor="0" colorId="64" view="normal" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView topLeftCell="A4" showZeros="0" defaultGridColor="0" colorId="64" view="normal" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:J40"/>
     </sheetView>
   </sheetViews>
